--- a/Resultados/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_36ha_100ha_14%_6m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_E4ED9D97C1554154DC048FB9368133F1DEC7F774" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0C1ACA-CA89-447A-BC62-947D1434DEAF}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="11_E4ED9D97C1554154DC048FB9368133F1DEC7F774" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B5D844-B833-460C-AEE4-84815A0240AE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>field_36ha_100ha_14%_6m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -10213,13 +10216,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D4F1CE-834B-4C60-B344-34BFD30B2CBF}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -10247,8 +10250,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -10288,7 +10294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -10319,7 +10325,7 @@
         <v>1.333224</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>1.4244479999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -10381,7 +10387,7 @@
         <v>1.486944</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -10412,7 +10418,7 @@
         <v>1.5245279999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10443,7 +10449,7 @@
         <v>1.5551280000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -10474,7 +10480,7 @@
         <v>1.57446</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -10505,7 +10511,7 @@
         <v>1.5952319999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -10536,7 +10542,7 @@
         <v>1.6046999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -10567,7 +10573,7 @@
         <v>1.6185239999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10598,7 +10604,7 @@
         <v>1.6324559999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -10629,7 +10635,7 @@
         <v>1.633572</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -10660,7 +10666,7 @@
         <v>1.63656</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -10691,7 +10697,7 @@
         <v>1.6400159999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
